--- a/apa/Fmedia2018.xlsx
+++ b/apa/Fmedia2018.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,9 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -425,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI8"/>
+  <dimension ref="A1:BJ8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,1443 +442,1469 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Alverca</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Anta-Espinho</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Arcos</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Aveiro</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Avenida da Liberdade</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Avintes</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Burgães-Santo Tirso</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Cascais - Escola da Cidadela</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Cerro</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Chamusca</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Coimbra/ Avenida Fernão Magalhães</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Cónego Dr. Manuel Faria-Azurém</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>David Neto</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>D.Manuel II-Vermoim</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Douro Norte</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Entrecampos</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Ermesinde-Valongo</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Ervedeira</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Escavadeira</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Estarreja</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Faial</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Fernando Pó</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Fornelo do Monte</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Francisco Sá Carneiro-Campanha</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Fr Bartolomeu Mártires-S.Vitor</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Frossos-Braga</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Fundão</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Ílhavo</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Instituto Geofísico de Coimbra</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>João Gomes Laranjo-S.Hora</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Joaquim Magalhães</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Laranjeiro</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Lavradio</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Leça do Balio-Matosinhos</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Loures-Centro</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Lourinhã</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Malpique</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Meco-Perafita</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Mem Martins</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Mindelo-Vila do Conde</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Minho-Lima</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Monte Chãos</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>Montemor-o-Velho</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>Odivelas-Ramada</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>Olivais</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>Paços de Ferreira</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>Paio Pires</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>Pe Moreira Neves-Castelões de Cepeda</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>Quebedo</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Quinta do Marquês</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>Reboleira</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>Santa Cruz de Benfica</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>Santana</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>São Gonçalo</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>São João</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>Seara-Matosinhos</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>Sonega</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>Terena</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>VNTelha-Maia</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>Alfragide/Amadora</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>proporção</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="2" t="n">
+        <v>43267</v>
+      </c>
+      <c r="B2" t="n">
         <v>17.81666666666667</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>14.83333333333333</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>17.73333333333333</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>17.125</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>29.7125</v>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="n">
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="n">
         <v>9.714285714285714</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>21.18333333333333</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>14.01428571428571</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>11.80833333333333</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>24.58333333333333</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>13.45833333333333</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>28.59583333333333</v>
       </c>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="n">
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="n">
         <v>7.916666666666667</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>17.50416666666667</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>19.08333333333333</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>14.08333333333333</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>16.35</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>16.04166666666667</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>5.516666666666667</v>
       </c>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="n">
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="n">
         <v>12.70833333333333</v>
       </c>
-      <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="n">
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="n">
         <v>2.916666666666667</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AB2" t="n">
         <v>14.625</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AC2" t="n">
         <v>22.79166666666667</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AD2" t="n">
         <v>16.41666666666667</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AE2" t="n">
         <v>20.58333333333333</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AF2" t="n">
         <v>14.6</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AG2" t="n">
         <v>15.97916666666667</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AH2" t="n">
         <v>16.32916666666667</v>
       </c>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="n">
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="n">
         <v>17.00416666666667</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AK2" t="n">
         <v>12.69583333333333</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AL2" t="n">
         <v>19.125</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AM2" t="n">
         <v>11.68181818181818</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AN2" t="n">
         <v>15.75</v>
       </c>
-      <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="n">
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="n">
         <v>20.20833333333333</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AS2" t="n">
         <v>16.03333333333333</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AT2" t="n">
         <v>14.48333333333333</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AU2" t="n">
         <v>21.16666666666667</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AV2" t="n">
         <v>18.8</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AW2" t="n">
         <v>7.458333333333333</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AX2" t="n">
         <v>16.65416666666667</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="AY2" t="n">
         <v>14.8875</v>
       </c>
-      <c r="AY2" t="n">
+      <c r="AZ2" t="n">
         <v>16.5375</v>
       </c>
-      <c r="AZ2" t="inlineStr"/>
-      <c r="BA2" t="n">
+      <c r="BA2" t="inlineStr"/>
+      <c r="BB2" t="n">
         <v>19.10416666666667</v>
       </c>
-      <c r="BB2" t="n">
+      <c r="BC2" t="n">
         <v>15.27083333333333</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BD2" t="n">
         <v>21.01666666666667</v>
       </c>
-      <c r="BD2" t="n">
+      <c r="BE2" t="n">
         <v>28.83333333333333</v>
       </c>
-      <c r="BE2" t="n">
+      <c r="BF2" t="n">
         <v>12.66666666666667</v>
       </c>
-      <c r="BF2" t="n">
+      <c r="BG2" t="n">
         <v>13.33333333333333</v>
       </c>
-      <c r="BG2" t="n">
+      <c r="BH2" t="n">
         <v>15.38095238095238</v>
       </c>
-      <c r="BH2" t="inlineStr"/>
-      <c r="BI2" t="n">
-        <v>0.8166666666666667</v>
+      <c r="BI2" t="inlineStr"/>
+      <c r="BJ2" t="n">
+        <v>0.819672131147541</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="2" t="n">
+        <v>43268</v>
+      </c>
+      <c r="B3" t="n">
         <v>16.03333333333333</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>24.54166666666667</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>18.32083333333333</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>19.5</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>28.1125</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>18.61904761904762</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>11.66666666666667</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>22.10833333333333</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>13.2875</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>15.11666666666667</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>23.375</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>9.833333333333334</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>25.47916666666667</v>
       </c>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="n">
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="n">
         <v>7.958333333333333</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>17.84166666666667</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>18.125</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>23</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>18.32083333333333</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>14.5</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>3.995833333333334</v>
       </c>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="n">
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="n">
         <v>8.666666666666666</v>
       </c>
-      <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="n">
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="n">
         <v>3.608695652173913</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AB3" t="n">
         <v>11.5</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AC3" t="n">
         <v>24.75</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AD3" t="n">
         <v>18.70833333333333</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AE3" t="n">
         <v>19.08333333333333</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AF3" t="n">
         <v>19.64583333333333</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AG3" t="n">
         <v>18.38333333333333</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AH3" t="n">
         <v>16.225</v>
       </c>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="n">
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="n">
         <v>15.725</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AK3" t="n">
         <v>19.05833333333333</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AL3" t="n">
         <v>20.35416666666667</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AM3" t="n">
         <v>24.18181818181818</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AN3" t="n">
         <v>17.05416666666667</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AO3" t="n">
         <v>13.75</v>
       </c>
-      <c r="AO3" t="inlineStr"/>
       <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="n">
+      <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="n">
         <v>20.16666666666667</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AS3" t="n">
         <v>21.4625</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AT3" t="n">
         <v>18.39166666666667</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AU3" t="n">
         <v>21.66666666666667</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AV3" t="n">
         <v>22.9375</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AW3" t="n">
         <v>7.916666666666667</v>
       </c>
-      <c r="AW3" t="n">
+      <c r="AX3" t="n">
         <v>17.44166666666667</v>
       </c>
-      <c r="AX3" t="n">
+      <c r="AY3" t="n">
         <v>19.22916666666667</v>
       </c>
-      <c r="AY3" t="n">
+      <c r="AZ3" t="n">
         <v>18.18333333333333</v>
       </c>
-      <c r="AZ3" t="inlineStr"/>
-      <c r="BA3" t="n">
+      <c r="BA3" t="inlineStr"/>
+      <c r="BB3" t="n">
         <v>19.575</v>
       </c>
-      <c r="BB3" t="n">
+      <c r="BC3" t="n">
         <v>21.59166666666667</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BD3" t="n">
         <v>24.17916666666666</v>
       </c>
-      <c r="BD3" t="n">
+      <c r="BE3" t="n">
         <v>30.95833333333333</v>
       </c>
-      <c r="BE3" t="n">
+      <c r="BF3" t="n">
         <v>15.29166666666667</v>
       </c>
-      <c r="BF3" t="n">
+      <c r="BG3" t="n">
         <v>12</v>
       </c>
-      <c r="BG3" t="n">
+      <c r="BH3" t="n">
         <v>22.21052631578947</v>
       </c>
-      <c r="BH3" t="inlineStr"/>
-      <c r="BI3" t="n">
-        <v>0.85</v>
+      <c r="BI3" t="inlineStr"/>
+      <c r="BJ3" t="n">
+        <v>0.8524590163934426</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
+      <c r="A4" s="2" t="n">
+        <v>43269</v>
+      </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="n">
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="n">
         <v>28.6375</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>26.41666666666667</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>37.54166666666666</v>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="n">
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
         <v>11.04166666666667</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>42.27916666666667</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>14.01666666666667</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="n">
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
         <v>25.875</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>14.78260869565217</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>29.04166666666667</v>
       </c>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="n">
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="n">
         <v>10.54166666666667</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
         <v>28.0625</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
         <v>12.58333333333333</v>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>25.5</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>28.06666666666667</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>17.58333333333333</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>3.195833333333333</v>
       </c>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="n">
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="n">
         <v>4.375</v>
       </c>
-      <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="n">
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="n">
         <v>3.416666666666667</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AB4" t="n">
         <v>7.666666666666667</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AC4" t="n">
         <v>29.125</v>
       </c>
-      <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="n">
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="n">
         <v>19.475</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AG4" t="n">
         <v>28.67083333333333</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AH4" t="n">
         <v>31.72916666666667</v>
       </c>
-      <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="n">
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="n">
         <v>19.18333333333333</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AK4" t="n">
         <v>26.00833333333334</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AL4" t="n">
         <v>24.50416666666667</v>
       </c>
-      <c r="AL4" t="inlineStr"/>
-      <c r="AM4" t="n">
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="n">
         <v>19.40833333333333</v>
       </c>
-      <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="inlineStr"/>
       <c r="AP4" t="inlineStr"/>
-      <c r="AQ4" t="n">
+      <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="n">
         <v>19.16666666666667</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AS4" t="n">
         <v>23.1625</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AT4" t="n">
         <v>22.78333333333333</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AU4" t="n">
         <v>25.95833333333333</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AV4" t="n">
         <v>33.90833333333333</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AW4" t="n">
         <v>5</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="AX4" t="n">
         <v>29.37083333333333</v>
       </c>
-      <c r="AX4" t="n">
+      <c r="AY4" t="n">
         <v>24.2375</v>
       </c>
-      <c r="AY4" t="n">
+      <c r="AZ4" t="n">
         <v>25.50833333333334</v>
       </c>
-      <c r="AZ4" t="inlineStr"/>
-      <c r="BA4" t="n">
+      <c r="BA4" t="inlineStr"/>
+      <c r="BB4" t="n">
         <v>16.80833333333333</v>
       </c>
-      <c r="BB4" t="n">
+      <c r="BC4" t="n">
         <v>33.4</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BD4" t="n">
         <v>36.225</v>
       </c>
-      <c r="BD4" t="n">
+      <c r="BE4" t="n">
         <v>21.45</v>
       </c>
-      <c r="BE4" t="n">
+      <c r="BF4" t="n">
         <v>18</v>
       </c>
-      <c r="BF4" t="n">
+      <c r="BG4" t="n">
         <v>16</v>
       </c>
-      <c r="BG4" t="n">
+      <c r="BH4" t="n">
         <v>16.04761904761905</v>
       </c>
-      <c r="BH4" t="inlineStr"/>
-      <c r="BI4" t="n">
-        <v>0.7166666666666667</v>
+      <c r="BI4" t="inlineStr"/>
+      <c r="BJ4" t="n">
+        <v>0.7213114754098361</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="n">
+      <c r="A5" s="2" t="n">
+        <v>43270</v>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="n">
         <v>6.791666666666667</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>32.02857142857143</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>19.54166666666667</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>45.90833333333333</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>16.04545454545455</v>
       </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="n">
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="n">
         <v>41.47083333333333</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>15.19166666666667</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>21.99583333333333</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>26.83333333333333</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>14.29166666666667</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>37.60416666666666</v>
       </c>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="n">
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="n">
         <v>8.125</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
         <v>38.89166666666667</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
         <v>12.41666666666667</v>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>40.45833333333334</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>34.92083333333333</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>15.58333333333333</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>4.1375</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>32.07619047619048</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>7.958333333333333</v>
       </c>
-      <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="n">
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="n">
         <v>4.75</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AB5" t="n">
         <v>11.875</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AC5" t="n">
         <v>21.625</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AD5" t="n">
         <v>15.16666666666667</v>
       </c>
-      <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="n">
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="n">
         <v>28.49583333333333</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AG5" t="n">
         <v>36.6375</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AH5" t="n">
         <v>36.00833333333333</v>
       </c>
-      <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="n">
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="n">
         <v>33.20833333333334</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AK5" t="n">
         <v>28.725</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AL5" t="n">
         <v>36.00833333333333</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AM5" t="n">
         <v>7.904761904761905</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AN5" t="n">
         <v>33.6125</v>
       </c>
-      <c r="AN5" t="inlineStr"/>
       <c r="AO5" t="inlineStr"/>
       <c r="AP5" t="inlineStr"/>
-      <c r="AQ5" t="n">
+      <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="n">
         <v>28.20833333333333</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AS5" t="n">
         <v>45.20416666666667</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AT5" t="n">
         <v>34.57083333333333</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="AU5" t="n">
         <v>28.375</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="AV5" t="n">
         <v>39.24583333333333</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="AW5" t="n">
         <v>6</v>
       </c>
-      <c r="AW5" t="n">
+      <c r="AX5" t="n">
         <v>30.30833333333333</v>
       </c>
-      <c r="AX5" t="n">
+      <c r="AY5" t="n">
         <v>31.21666666666667</v>
       </c>
-      <c r="AY5" t="n">
+      <c r="AZ5" t="n">
         <v>35.42916666666667</v>
       </c>
-      <c r="AZ5" t="inlineStr"/>
-      <c r="BA5" t="n">
+      <c r="BA5" t="inlineStr"/>
+      <c r="BB5" t="n">
         <v>7.058333333333334</v>
       </c>
-      <c r="BB5" t="n">
+      <c r="BC5" t="n">
         <v>12.84166666666667</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BD5" t="n">
         <v>17.79583333333333</v>
       </c>
-      <c r="BD5" t="n">
+      <c r="BE5" t="n">
         <v>23.77272727272727</v>
       </c>
-      <c r="BE5" t="n">
+      <c r="BF5" t="n">
         <v>17.41666666666667</v>
       </c>
-      <c r="BF5" t="n">
+      <c r="BG5" t="n">
         <v>16.04761904761905</v>
       </c>
-      <c r="BG5" t="n">
+      <c r="BH5" t="n">
         <v>13.90476190476191</v>
       </c>
-      <c r="BH5" t="inlineStr"/>
-      <c r="BI5" t="n">
-        <v>0.8</v>
+      <c r="BI5" t="inlineStr"/>
+      <c r="BJ5" t="n">
+        <v>0.8032786885245902</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="n">
+      <c r="A6" s="2" t="n">
+        <v>43271</v>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="n">
         <v>13.68181818181818</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>36.49166666666667</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>27.125</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>48.41666666666666</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>27.2</v>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="n">
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="n">
         <v>41.12380952380953</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>14.45833333333333</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>29.04583333333333</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>37.58333333333334</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>18.83333333333333</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>38.29166666666666</v>
       </c>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="n">
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="n">
         <v>10.75</v>
       </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
         <v>40.19583333333333</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
         <v>27.20833333333333</v>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>31.45833333333333</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>35.2875</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>17.89473684210526</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>3.3375</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>38.3375</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>14.47368421052632</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Y6" t="n">
         <v>17.22727272727273</v>
       </c>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="n">
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="n">
         <v>10.08333333333333</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AB6" t="n">
         <v>18.41666666666667</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AC6" t="n">
         <v>32.83333333333334</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AD6" t="n">
         <v>28.45833333333333</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AE6" t="n">
         <v>27.28571428571428</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AF6" t="n">
         <v>30.44166666666667</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AG6" t="n">
         <v>38.62916666666667</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AH6" t="n">
         <v>39.97916666666666</v>
       </c>
-      <c r="AH6" t="inlineStr"/>
-      <c r="AI6" t="n">
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="n">
         <v>25.6375</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AK6" t="n">
         <v>25.84583333333333</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AL6" t="n">
         <v>43.41666666666666</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AM6" t="n">
         <v>20.25</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AN6" t="n">
         <v>27.72083333333333</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AO6" t="n">
         <v>16.58333333333333</v>
       </c>
-      <c r="AO6" t="inlineStr"/>
       <c r="AP6" t="inlineStr"/>
-      <c r="AQ6" t="n">
+      <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="n">
         <v>28.625</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AS6" t="n">
         <v>43.25416666666666</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AT6" t="n">
         <v>36.34166666666667</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AU6" t="n">
         <v>27.79166666666667</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="AV6" t="n">
         <v>38.65833333333333</v>
       </c>
-      <c r="AV6" t="n">
+      <c r="AW6" t="n">
         <v>7</v>
       </c>
-      <c r="AW6" t="n">
+      <c r="AX6" t="n">
         <v>39.85833333333333</v>
       </c>
-      <c r="AX6" t="n">
+      <c r="AY6" t="n">
         <v>28.62916666666667</v>
       </c>
-      <c r="AY6" t="n">
+      <c r="AZ6" t="n">
         <v>31.62083333333333</v>
       </c>
-      <c r="AZ6" t="inlineStr"/>
-      <c r="BA6" t="n">
+      <c r="BA6" t="inlineStr"/>
+      <c r="BB6" t="n">
         <v>10.65833333333333</v>
       </c>
-      <c r="BB6" t="n">
+      <c r="BC6" t="n">
         <v>11.61666666666667</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BD6" t="n">
         <v>18.52083333333333</v>
       </c>
-      <c r="BD6" t="n">
+      <c r="BE6" t="n">
         <v>25</v>
       </c>
-      <c r="BE6" t="n">
+      <c r="BF6" t="n">
         <v>19.29166666666667</v>
       </c>
-      <c r="BF6" t="n">
+      <c r="BG6" t="n">
         <v>25.33333333333333</v>
       </c>
-      <c r="BG6" t="inlineStr"/>
       <c r="BH6" t="inlineStr"/>
-      <c r="BI6" t="n">
-        <v>0.8333333333333334</v>
+      <c r="BI6" t="inlineStr"/>
+      <c r="BJ6" t="n">
+        <v>0.8360655737704918</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="n">
+      <c r="A7" s="2" t="n">
+        <v>43272</v>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="n">
         <v>11.41666666666667</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>21.89583333333333</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>19.45833333333333</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>35.74166666666667</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>27.61904761904762</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>13</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>30.97916666666667</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>12.575</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>17.78333333333333</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>28.70833333333333</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>18.04166666666667</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>31.25</v>
       </c>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="n">
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="n">
         <v>9.666666666666666</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" t="n">
         <v>25.20416666666667</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" t="n">
         <v>29.54166666666667</v>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>21.25</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>24.0875</v>
       </c>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="n">
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="n">
         <v>3.470833333333333</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>18.30833333333333</v>
       </c>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="n">
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="n">
         <v>16.28571428571428</v>
       </c>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="n">
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="n">
         <v>7.5</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AB7" t="n">
         <v>13.54166666666667</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AC7" t="n">
         <v>24.79166666666667</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AD7" t="n">
         <v>20.33333333333333</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AE7" t="n">
         <v>27.04166666666667</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AF7" t="n">
         <v>18.6625</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AG7" t="n">
         <v>23.28333333333333</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AH7" t="n">
         <v>21.91666666666667</v>
       </c>
-      <c r="AH7" t="inlineStr"/>
-      <c r="AI7" t="n">
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="n">
         <v>20.57916666666667</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AK7" t="n">
         <v>13.6</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AL7" t="n">
         <v>19.77916666666667</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AM7" t="n">
         <v>20.45833333333333</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AN7" t="n">
         <v>21.57916666666667</v>
       </c>
-      <c r="AN7" t="n">
+      <c r="AO7" t="n">
         <v>8.875</v>
       </c>
-      <c r="AO7" t="inlineStr"/>
       <c r="AP7" t="inlineStr"/>
-      <c r="AQ7" t="n">
+      <c r="AQ7" t="inlineStr"/>
+      <c r="AR7" t="n">
         <v>20.79166666666667</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="AS7" t="n">
         <v>24.4</v>
       </c>
-      <c r="AS7" t="n">
+      <c r="AT7" t="n">
         <v>20.29583333333333</v>
       </c>
-      <c r="AT7" t="n">
+      <c r="AU7" t="n">
         <v>25.16666666666667</v>
       </c>
-      <c r="AU7" t="n">
+      <c r="AV7" t="n">
         <v>31.12916666666667</v>
       </c>
-      <c r="AV7" t="n">
+      <c r="AW7" t="n">
         <v>7.208333333333333</v>
       </c>
-      <c r="AW7" t="n">
+      <c r="AX7" t="n">
         <v>19.69583333333333</v>
       </c>
-      <c r="AX7" t="n">
+      <c r="AY7" t="n">
         <v>15.3625</v>
       </c>
-      <c r="AY7" t="n">
+      <c r="AZ7" t="n">
         <v>20.03333333333333</v>
       </c>
-      <c r="AZ7" t="inlineStr"/>
-      <c r="BA7" t="n">
+      <c r="BA7" t="inlineStr"/>
+      <c r="BB7" t="n">
         <v>11.275</v>
       </c>
-      <c r="BB7" t="n">
+      <c r="BC7" t="n">
         <v>13.20416666666667</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BD7" t="n">
         <v>14.16666666666667</v>
       </c>
-      <c r="BD7" t="n">
+      <c r="BE7" t="n">
         <v>27.70833333333333</v>
       </c>
-      <c r="BE7" t="n">
+      <c r="BF7" t="n">
         <v>16.95833333333333</v>
       </c>
-      <c r="BF7" t="n">
+      <c r="BG7" t="n">
         <v>15.29166666666667</v>
       </c>
-      <c r="BG7" t="n">
+      <c r="BH7" t="n">
         <v>21.58333333333333</v>
       </c>
-      <c r="BH7" t="inlineStr"/>
-      <c r="BI7" t="n">
-        <v>0.8333333333333334</v>
+      <c r="BI7" t="inlineStr"/>
+      <c r="BJ7" t="n">
+        <v>0.8360655737704918</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="n">
+      <c r="A8" s="2" t="n">
+        <v>43273</v>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="n">
         <v>9.434782608695652</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>20.69583333333333</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>14.25</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>32.88333333333333</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>19.86363636363636</v>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="n">
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="n">
         <v>24.28333333333333</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>11.30416666666667</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>12.09166666666667</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>17.58333333333333</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>14.5</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>32.1625</v>
       </c>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="n">
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="n">
         <v>7.826086956521739</v>
       </c>
-      <c r="P8" t="n">
+      <c r="Q8" t="n">
         <v>19.16666666666667</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="R8" t="n">
         <v>16.375</v>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>9.791666666666666</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>19.62916666666667</v>
       </c>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="n">
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="n">
         <v>2.783333333333333</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>16.3</v>
       </c>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="n">
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="n">
         <v>16.30434782608696</v>
       </c>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="n">
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="n">
         <v>6.208333333333333</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AB8" t="n">
         <v>10.5</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AC8" t="n">
         <v>18.66666666666667</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AD8" t="n">
         <v>11.33333333333333</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AE8" t="n">
         <v>20.375</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AF8" t="n">
         <v>25.41666666666667</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AG8" t="n">
         <v>16.75833333333333</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AH8" t="n">
         <v>13.5</v>
       </c>
-      <c r="AH8" t="inlineStr"/>
-      <c r="AI8" t="n">
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="n">
         <v>14.39166666666667</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AK8" t="n">
         <v>13.29166666666667</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AL8" t="n">
         <v>31.29166666666667</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AM8" t="n">
         <v>10.33333333333333</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AN8" t="n">
         <v>13.65833333333333</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AO8" t="n">
         <v>7.125</v>
       </c>
-      <c r="AO8" t="inlineStr"/>
       <c r="AP8" t="inlineStr"/>
-      <c r="AQ8" t="n">
+      <c r="AQ8" t="inlineStr"/>
+      <c r="AR8" t="n">
         <v>15.45833333333333</v>
       </c>
-      <c r="AR8" t="n">
+      <c r="AS8" t="n">
         <v>18.47083333333333</v>
       </c>
-      <c r="AS8" t="n">
+      <c r="AT8" t="n">
         <v>12.04583333333333</v>
       </c>
-      <c r="AT8" t="n">
+      <c r="AU8" t="n">
         <v>20.20833333333333</v>
       </c>
-      <c r="AU8" t="n">
+      <c r="AV8" t="n">
         <v>26.5</v>
       </c>
-      <c r="AV8" t="n">
+      <c r="AW8" t="n">
         <v>6.666666666666667</v>
       </c>
-      <c r="AW8" t="n">
+      <c r="AX8" t="n">
         <v>19.8875</v>
       </c>
-      <c r="AX8" t="n">
+      <c r="AY8" t="n">
         <v>14.00833333333333</v>
       </c>
-      <c r="AY8" t="n">
+      <c r="AZ8" t="n">
         <v>15.73333333333333</v>
       </c>
-      <c r="AZ8" t="inlineStr"/>
-      <c r="BA8" t="n">
+      <c r="BA8" t="inlineStr"/>
+      <c r="BB8" t="n">
         <v>11.07083333333333</v>
       </c>
-      <c r="BB8" t="n">
+      <c r="BC8" t="n">
         <v>10.71666666666667</v>
       </c>
-      <c r="BC8" t="n">
+      <c r="BD8" t="n">
         <v>16.12083333333333</v>
       </c>
-      <c r="BD8" t="n">
+      <c r="BE8" t="n">
         <v>21.75</v>
       </c>
-      <c r="BE8" t="n">
+      <c r="BF8" t="n">
         <v>16.125</v>
       </c>
-      <c r="BF8" t="n">
+      <c r="BG8" t="n">
         <v>7.625</v>
       </c>
-      <c r="BG8" t="n">
+      <c r="BH8" t="n">
         <v>15.14285714285714</v>
       </c>
-      <c r="BH8" t="inlineStr"/>
-      <c r="BI8" t="n">
-        <v>0.8166666666666667</v>
+      <c r="BI8" t="inlineStr"/>
+      <c r="BJ8" t="n">
+        <v>0.819672131147541</v>
       </c>
     </row>
   </sheetData>

--- a/apa/Fmedia2018.xlsx
+++ b/apa/Fmedia2018.xlsx
@@ -914,7 +914,7 @@
       </c>
       <c r="BI2" t="inlineStr"/>
       <c r="BJ2" t="n">
-        <v>0.819672131147541</v>
+        <v>0.8166666666666667</v>
       </c>
     </row>
     <row r="3">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="BI3" t="inlineStr"/>
       <c r="BJ3" t="n">
-        <v>0.8524590163934426</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="4">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="BI4" t="inlineStr"/>
       <c r="BJ4" t="n">
-        <v>0.7213114754098361</v>
+        <v>0.7166666666666667</v>
       </c>
     </row>
     <row r="5">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="BI5" t="inlineStr"/>
       <c r="BJ5" t="n">
-        <v>0.8032786885245902</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="6">
@@ -1570,7 +1570,7 @@
       <c r="BH6" t="inlineStr"/>
       <c r="BI6" t="inlineStr"/>
       <c r="BJ6" t="n">
-        <v>0.8360655737704918</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="7">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="BI7" t="inlineStr"/>
       <c r="BJ7" t="n">
-        <v>0.8360655737704918</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="8">
@@ -1904,7 +1904,7 @@
       </c>
       <c r="BI8" t="inlineStr"/>
       <c r="BJ8" t="n">
-        <v>0.819672131147541</v>
+        <v>0.8166666666666667</v>
       </c>
     </row>
   </sheetData>
